--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-extension-process-authorization-organization-practitioner.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-extension-process-authorization-organization-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="230">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28</t>
+    <t>2025-10-27</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Specifies an organization and practitioner role for process authorization. This extension is used within a Coding to indicate both a specific organization (by its identifier) and a practitioner role (by a coding). The organization is identified with an Identifier using the system `http://dsf.dev/sid/organization-identifier`, and the practitioner role is specified as a Coding. This enables precise authorization of organization-practitioner-role combinations for requester or recipient roles in process authorization extensions.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -286,6 +283,9 @@
     <t>Extension.extension</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
@@ -462,7 +462,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -550,7 +550,7 @@
     <t>Extension.extension.value[x].assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -592,6 +592,12 @@
   <si>
     <t xml:space="preserve">Coding
 </t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://dsf.dev/fhir/ValueSet/practitioner-role</t>
   </si>
   <si>
     <t>Extension.extension:practitionerRole.value[x].id</t>
@@ -947,57 +953,55 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>12</v>
@@ -1005,18 +1009,18 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>36</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1035,163 +1039,163 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="34.4921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="10.83984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.80859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.09375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.11328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="10.5234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="151.1953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="147.375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="37.421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.94140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="39.19921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="16.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="86.17578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="AJ1" t="s" s="1">
+      <c r="AK1" t="s" s="1">
         <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1199,28 +1203,28 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1271,19 +1275,19 @@
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH2" t="s" s="2">
+      <c r="AI2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AI2" t="s" s="2">
+      <c r="AJ2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>20</v>
@@ -1291,10 +1295,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1302,10 +1306,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>20</v>
@@ -1317,13 +1321,13 @@
         <v>20</v>
       </c>
       <c r="K3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1374,30 +1378,30 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK3" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1405,10 +1409,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>20</v>
@@ -1423,10 +1427,10 @@
         <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1480,16 +1484,16 @@
         <v>93</v>
       </c>
       <c r="AG4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH4" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI4" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -1500,7 +1504,7 @@
         <v>94</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>95</v>
@@ -1510,10 +1514,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
@@ -1528,10 +1532,10 @@
         <v>89</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1585,16 +1589,16 @@
         <v>93</v>
       </c>
       <c r="AG5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH5" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
@@ -1613,10 +1617,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -1628,13 +1632,13 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1685,22 +1689,22 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -1716,10 +1720,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -1793,19 +1797,19 @@
         <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH7" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH7" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI7" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -1821,10 +1825,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>20</v>
@@ -1898,10 +1902,10 @@
         <v>110</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>20</v>
@@ -1926,10 +1930,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>20</v>
@@ -2001,10 +2005,10 @@
         <v>117</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>20</v>
@@ -2029,10 +2033,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -2044,13 +2048,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2101,22 +2105,22 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK10" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK10" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -2132,10 +2136,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
@@ -2209,19 +2213,19 @@
         <v>93</v>
       </c>
       <c r="AG11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH11" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH11" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
@@ -2237,10 +2241,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -2316,10 +2320,10 @@
         <v>134</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>20</v>
@@ -2344,10 +2348,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -2423,10 +2427,10 @@
         <v>146</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>20</v>
@@ -2451,10 +2455,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
@@ -2530,10 +2534,10 @@
         <v>155</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>20</v>
@@ -2558,10 +2562,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
@@ -2573,7 +2577,7 @@
         <v>125</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>159</v>
@@ -2635,10 +2639,10 @@
         <v>163</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>20</v>
@@ -2663,10 +2667,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
@@ -2738,10 +2742,10 @@
         <v>170</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
@@ -2766,10 +2770,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
@@ -2843,10 +2847,10 @@
         <v>178</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>20</v>
@@ -2863,7 +2867,7 @@
         <v>180</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>181</v>
@@ -2873,10 +2877,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>20</v>
@@ -2891,10 +2895,10 @@
         <v>89</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2948,16 +2952,16 @@
         <v>93</v>
       </c>
       <c r="AG18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH18" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH18" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>20</v>
@@ -2976,10 +2980,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>20</v>
@@ -2991,13 +2995,13 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3048,22 +3052,22 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="20">
@@ -3079,10 +3083,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -3156,19 +3160,19 @@
         <v>93</v>
       </c>
       <c r="AG20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH20" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH20" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
@@ -3184,10 +3188,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>20</v>
@@ -3261,10 +3265,10 @@
         <v>110</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>20</v>
@@ -3289,10 +3293,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
@@ -3337,13 +3341,11 @@
         <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>20</v>
@@ -3364,10 +3366,10 @@
         <v>117</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
@@ -3381,7 +3383,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>120</v>
@@ -3392,10 +3394,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -3407,13 +3409,13 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3464,27 +3466,27 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>122</v>
@@ -3495,10 +3497,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G24" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
@@ -3572,24 +3574,24 @@
         <v>93</v>
       </c>
       <c r="AG24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH24" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH24" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>148</v>
@@ -3600,10 +3602,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>20</v>
@@ -3618,16 +3620,16 @@
         <v>106</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -3676,13 +3678,13 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>20</v>
@@ -3691,15 +3693,15 @@
         <v>118</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3707,10 +3709,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
@@ -3722,16 +3724,16 @@
         <v>125</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -3781,13 +3783,13 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>20</v>
@@ -3796,15 +3798,15 @@
         <v>118</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3812,10 +3814,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
@@ -3830,14 +3832,14 @@
         <v>126</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -3886,13 +3888,13 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>20</v>
@@ -3901,15 +3903,15 @@
         <v>118</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3917,10 +3919,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -3932,17 +3934,17 @@
         <v>125</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -3991,13 +3993,13 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
@@ -4006,15 +4008,15 @@
         <v>118</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4022,10 +4024,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -4037,19 +4039,19 @@
         <v>125</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -4098,13 +4100,13 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
@@ -4113,7 +4115,7 @@
         <v>118</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30">
@@ -4129,10 +4131,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
@@ -4206,10 +4208,10 @@
         <v>110</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
@@ -4234,10 +4236,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
@@ -4249,7 +4251,7 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>115</v>
@@ -4309,10 +4311,10 @@
         <v>117</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>

--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-extension-process-authorization-organization-practitioner.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-extension-process-authorization-organization-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27</t>
+    <t>2025-11-26</t>
   </si>
   <si>
     <t>Publisher</t>
